--- a/Data/lec10_Data.xlsx
+++ b/Data/lec10_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CIVL562_EnvData\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323E6ED-CBFE-4E18-9170-AD675D073263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D28783-6BB7-4E82-8ECC-2D66D1ECADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{887DCB57-A1F4-5540-BBBA-270C114FF804}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{887DCB57-A1F4-5540-BBBA-270C114FF804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -119,1587 +119,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>conc_mgL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$115</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$115</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="114"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>5.5389999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3209999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>6.0839999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>5.3929999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>5.2089999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>5.3949999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>4.7119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>5.1509999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>3.6280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>2.0590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>3.165</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>3.1829999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>2.613</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>2.2280000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>3.3650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>2.6459999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>2.089</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>1.2629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>2.1419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>2.79</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>2.7250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>2.6179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>2.2130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>4.6180000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>2.5369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>1.6579999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>1.4419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>5.7569999999999997</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>6.1239999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>6.4119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>5.1210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>5.7640000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>4.8239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>3.7549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>3.4369999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>1.9870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>3.1890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>3.363</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>2.9689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>2.4929999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>3.3540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>2.9750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>2.032</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>1.6120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>2.9239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>2.948</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>3.3340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>2.7469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>2.4670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>2.9119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>3.637</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>1.5149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>1.583</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>6.0640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>6.0640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>5.6619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.3209999999999997</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>5.8730000000000002</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>5.7759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>5.5620000000000003</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>4.7119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>5.2619999999999996</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>5.1509999999999998</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>2.1840000000000002</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>2.2080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>2.056</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>1.8979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>1.321</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>1.1919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>0.72019999999999995</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="General">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>1.073</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>2.0609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>2.1970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>2.0550000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>2.8559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="General">
-                  <c:v>1.7210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>2.1840000000000002</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>1.006</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>0.77990000000000004</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>1.2470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>0.96250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="General">
-                  <c:v>5.702</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>5.702</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>5.2709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>6.1239999999999997</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>6.0519999999999996</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>4.8239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>5.0540000000000003</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>3.7549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>1.623</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>2.081</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>2.1459999999999999</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="General">
-                  <c:v>3.1930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="General">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>2.0339999999999998</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="General">
-                  <c:v>1.5389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="General">
-                  <c:v>1.095</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="General">
-                  <c:v>1.4239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="General">
-                  <c:v>0.96709999999999996</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="General">
-                  <c:v>1.569</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="General">
-                  <c:v>2.4980000000000002</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="General">
-                  <c:v>2.0230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="General">
-                  <c:v>3.0819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="General">
-                  <c:v>2.2240000000000002</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="General">
-                  <c:v>1.923</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="General">
-                  <c:v>1.59</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="General">
-                  <c:v>1.2410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="General">
-                  <c:v>1.581</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="General">
-                  <c:v>0.88280000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF4A-4CAD-AC6E-D00D0B3A82F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1628600640"/>
-        <c:axId val="1628601120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1628600640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1628601120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1628601120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1628600640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1D0B05-DB5C-446B-8642-3C742E07AF82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2001,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234A096-C54B-44EE-B554-E45C87C525F3}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
@@ -4312,11 +2731,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BC5716B2D22A24980608938EFBC53ED" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b0c1c130035d2e17af44bae71360143">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ef141899-60dd-451b-8081-eac529f532e9" xmlns:ns4="84f86888-e2b4-478e-aca2-7c9932d97ecc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="491749e6781a176d0d80036c6a8f7565" ns3:_="" ns4:_="">
     <xsd:import namespace="ef141899-60dd-451b-8081-eac529f532e9"/>
@@ -4545,22 +2978,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDA0910C-93B6-4823-871B-703551CA0A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84f86888-e2b4-478e-aca2-7c9932d97ecc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ef141899-60dd-451b-8081-eac529f532e9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534461A9-24EF-48AB-A060-FF4AAD43F5E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64092352-FFBF-4BF4-9F23-7AD6C2912CEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4577,29 +3020,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534461A9-24EF-48AB-A060-FF4AAD43F5E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDA0910C-93B6-4823-871B-703551CA0A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84f86888-e2b4-478e-aca2-7c9932d97ecc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ef141899-60dd-451b-8081-eac529f532e9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>